--- a/currentbuild/StructureDefinition-no-basis-middlename.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-middlename.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-middlename</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-middlename</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,15 +63,6 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Norge</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>HL7 Norge (https://www.hl7.no)</t>
-  </si>
-  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
@@ -81,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The basis extension defines the Norwegian middlename which is called 'mellomnavn' and defined by Norwegian legislation (Lov om personnavn).</t>
+    <t>The basis extension defines the Norwegian middlename wich is called "mellomnavn" and defined by Norwegian legislation (Lov om personnavn).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,19 +237,29 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t xml:space="preserve">mellomnavn
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
+    <t>Defines a Norwegian middle name</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -270,9 +271,6 @@
     <t>Extension.id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -334,37 +332,15 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>The middle name of a person</t>
+  </si>
+  <si>
+    <t>The middle name of a person.
+The middlename should be a norwegian middlename as defined by norwegian legislation (Lov om personnavn).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mellomnavn
-</t>
-  </si>
-  <si>
-    <t>The middle name of a person</t>
-  </si>
-  <si>
-    <t>The middle name of a person. The middlename should be a norwegian middlename as defined by norwegian legislation (Lov om personnavn).</t>
   </si>
 </sst>
 </file>
@@ -498,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -574,102 +550,92 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +645,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -688,7 +654,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -728,152 +694,152 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>9</v>
-      </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -924,13 +890,13 @@
         <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>81</v>
@@ -955,28 +921,28 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1027,30 +993,30 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1058,10 +1024,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -1073,13 +1039,13 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1118,25 +1084,25 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
@@ -1150,10 +1116,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1161,10 +1127,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1176,16 +1142,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1235,13 +1201,13 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
@@ -1250,44 +1216,44 @@
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1326,137 +1292,34 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/StructureDefinition-no-basis-middlename.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-middlename.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-middlename</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-middlename</t>
   </si>
   <si>
     <t>Version</t>
@@ -93,7 +93,7 @@
     <t>Kind</t>
   </si>
   <si>
-    <t>primitive-type</t>
+    <t>complex-type</t>
   </si>
   <si>
     <t>Type</t>
